--- a/Askeri Envanter Projesi Surecler ve Maliyet.xlsx
+++ b/Askeri Envanter Projesi Surecler ve Maliyet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POLAT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adfac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D0F0C-5401-4891-809F-1312DB8BEDF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B067CE5A-174E-4C2F-807D-54C87EC72369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E-ticaret" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgp7bYtXVQTHeC6Y8i+3NU+kTD7Rg=="/>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z841"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -564,17 +564,17 @@
         <v>30</v>
       </c>
       <c r="G2" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4">
         <v>500</v>
       </c>
       <c r="J2" s="6">
         <f t="shared" ref="J2:J16" si="0">G2*H2*I2</f>
-        <v>2000</v>
+        <v>37500</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -613,17 +613,17 @@
         <v>30</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4">
         <v>650</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>36400</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -662,17 +662,17 @@
         <v>30</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4">
         <v>400</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>19200</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -711,17 +711,17 @@
         <v>31</v>
       </c>
       <c r="G5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I5" s="4">
         <v>650</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>39000</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -760,7 +760,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
         <v>4</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -809,17 +809,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
         <v>650</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>65000</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -858,7 +858,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="4">
         <v>4</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -907,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="4">
         <v>4</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -956,7 +956,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="4">
         <v>4</v>
@@ -966,7 +966,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1005,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="4">
         <v>4</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1054,7 +1054,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4">
         <v>5</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1103,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="4">
         <v>4</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1152,7 +1152,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1201,7 +1201,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H15" s="4">
         <v>5</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1250,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="5">
         <v>8</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>12800</v>
+        <v>25600</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1301,7 +1301,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3">
         <f>SUM(H2:H16)</f>
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="J18" s="7">
         <f>SUM(J2:J16)</f>
-        <v>72200</v>
+        <v>317900</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
